--- a/data/trans_orig/P21D1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE392C9D-AE99-480D-A3B3-B1F7F68BF4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CE0FB7A-BE3C-4194-8CAE-E17491DD23AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1F8994E1-D6D0-4F77-AB98-C4D7DA3B01DF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6044AED2-8DA9-496F-88FA-116CBA2597DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1017,7 +1017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D038D33-C715-4C46-96C1-145B6E78D1CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13178040-9F02-4CDD-BBDB-76621EF3CFCD}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D1_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CE0FB7A-BE3C-4194-8CAE-E17491DD23AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0675DE70-A9AD-4056-9CEE-4A867F4A5D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6044AED2-8DA9-496F-88FA-116CBA2597DF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F332FDF-1416-45BA-97DB-F6B70EB6305E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="190">
-  <si>
-    <t>Población que, necesitandolo, no pudo recibir atención médica en 2023 (Tasa respuesta: 43,88%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="194">
+  <si>
+    <t>Población que, necesitándolo, no pudo recibir atención médica en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No lo ha necesitado</t>
@@ -74,28 +74,28 @@
     <t>28,92%</t>
   </si>
   <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
   </si>
   <si>
     <t>8,69%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
   </si>
   <si>
     <t>19,27%</t>
   </si>
   <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>71,08%</t>
   </si>
   <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
   </si>
   <si>
     <t>91,31%</t>
   </si>
   <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
   </si>
   <si>
     <t>80,73%</t>
   </si>
   <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -152,445 +152,457 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>22,98%</t>
   </si>
   <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
   </si>
   <si>
     <t>18,19%</t>
   </si>
   <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
   </si>
   <si>
     <t>20,33%</t>
   </si>
   <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
   </si>
   <si>
     <t>70,92%</t>
   </si>
   <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
   </si>
   <si>
     <t>80,61%</t>
   </si>
   <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
   </si>
   <si>
     <t>76,28%</t>
   </si>
   <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
   </si>
   <si>
     <t>6,1%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
   </si>
   <si>
     <t>31,05%</t>
   </si>
   <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,41%</t>
+  </si>
+  <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
   </si>
   <si>
     <t>19,09%</t>
   </si>
   <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
   </si>
   <si>
     <t>21,71%</t>
   </si>
   <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
   </si>
   <si>
     <t>73,49%</t>
   </si>
   <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
   </si>
   <si>
     <t>78,74%</t>
   </si>
   <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
   </si>
   <si>
     <t>76,25%</t>
   </si>
   <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
+    <t>2,68%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -599,7 +611,7 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,33%</t>
+    <t>0,31%</t>
   </si>
   <si>
     <t>0,05%</t>
@@ -1017,7 +1029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13178040-9F02-4CDD-BBDB-76621EF3CFCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38635324-D911-4C35-80B3-E2F003955E18}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1658,10 +1670,10 @@
         <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>115</v>
@@ -1670,13 +1682,13 @@
         <v>91877</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>225</v>
@@ -1685,13 +1697,13 @@
         <v>215359</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,13 +1718,13 @@
         <v>357609</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H15" s="7">
         <v>567</v>
@@ -1721,13 +1733,13 @@
         <v>386872</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M15" s="7">
         <v>877</v>
@@ -1736,13 +1748,13 @@
         <v>744481</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,13 +1769,13 @@
         <v>5589</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -1772,13 +1784,13 @@
         <v>18553</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -1787,13 +1799,13 @@
         <v>24142</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,7 +1841,7 @@
         <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1844,7 +1856,7 @@
         <v>32</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1900,7 +1912,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1912,13 +1924,13 @@
         <v>60806</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>62</v>
@@ -1927,7 +1939,7 @@
         <v>53418</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>103</v>
@@ -1993,13 +2005,13 @@
         <v>566388</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,13 +2026,13 @@
         <v>3231</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -2029,13 +2041,13 @@
         <v>6525</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -2044,13 +2056,13 @@
         <v>9755</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,7 +2083,7 @@
         <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2080,13 +2092,13 @@
         <v>780</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2095,13 +2107,13 @@
         <v>780</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,7 +2169,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2169,13 +2181,13 @@
         <v>123987</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H24" s="7">
         <v>128</v>
@@ -2184,13 +2196,13 @@
         <v>122656</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M24" s="7">
         <v>237</v>
@@ -2199,13 +2211,13 @@
         <v>246642</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,13 +2232,13 @@
         <v>293318</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>527</v>
@@ -2235,13 +2247,13 @@
         <v>382219</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>839</v>
@@ -2250,13 +2262,13 @@
         <v>675537</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,13 +2283,13 @@
         <v>6517</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -2286,13 +2298,13 @@
         <v>6830</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -2301,13 +2313,13 @@
         <v>13346</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,13 +2349,13 @@
         <v>744</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -2352,13 +2364,13 @@
         <v>744</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2426,13 +2438,13 @@
         <v>373927</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H29" s="7">
         <v>377</v>
@@ -2441,13 +2453,13 @@
         <v>321529</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M29" s="7">
         <v>706</v>
@@ -2456,13 +2468,13 @@
         <v>695456</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,13 +2489,13 @@
         <v>1115935</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H30" s="7">
         <v>1952</v>
@@ -2492,13 +2504,13 @@
         <v>1326475</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M30" s="7">
         <v>3061</v>
@@ -2507,13 +2519,13 @@
         <v>2442410</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,13 +2540,13 @@
         <v>28668</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H31" s="7">
         <v>45</v>
@@ -2543,13 +2555,13 @@
         <v>35160</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M31" s="7">
         <v>67</v>
@@ -2558,13 +2570,13 @@
         <v>63828</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,7 +2597,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -2594,13 +2606,13 @@
         <v>1523</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -2609,13 +2621,13 @@
         <v>1523</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,7 +2683,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0675DE70-A9AD-4056-9CEE-4A867F4A5D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E788018-73D9-4A4F-B757-C95F2FA8B277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F332FDF-1416-45BA-97DB-F6B70EB6305E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{33F95EA1-7D4E-4AB4-81C2-79A43B7C3B19}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="190">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención médica en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>28,92%</t>
   </si>
   <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
   </si>
   <si>
     <t>8,69%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
   </si>
   <si>
     <t>19,27%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>71,08%</t>
   </si>
   <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
   </si>
   <si>
     <t>91,31%</t>
   </si>
   <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
   </si>
   <si>
     <t>80,73%</t>
   </si>
   <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -158,82 +158,82 @@
     <t>22,98%</t>
   </si>
   <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
   </si>
   <si>
     <t>18,19%</t>
   </si>
   <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
   </si>
   <si>
     <t>20,33%</t>
   </si>
   <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
   </si>
   <si>
     <t>70,92%</t>
   </si>
   <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
   </si>
   <si>
     <t>80,61%</t>
   </si>
   <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
   </si>
   <si>
     <t>76,28%</t>
   </si>
   <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
   </si>
   <si>
     <t>6,1%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -251,79 +251,82 @@
     <t>25,37%</t>
   </si>
   <si>
-    <t>30,81%</t>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
   </si>
   <si>
     <t>18,48%</t>
   </si>
   <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
   </si>
   <si>
     <t>21,89%</t>
   </si>
   <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
   </si>
   <si>
     <t>73,48%</t>
   </si>
   <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
   </si>
   <si>
     <t>77,79%</t>
   </si>
   <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
   </si>
   <si>
     <t>75,66%</t>
   </si>
   <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
   </si>
   <si>
     <t>0,27%</t>
@@ -338,82 +341,73 @@
     <t>18,09%</t>
   </si>
   <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
   </si>
   <si>
     <t>16,53%</t>
   </si>
   <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
   </si>
   <si>
     <t>80,95%</t>
   </si>
   <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
   </si>
   <si>
     <t>82,9%</t>
   </si>
   <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
+    <t>2,57%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
   </si>
   <si>
     <t>0,61%</t>
@@ -422,13 +416,13 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,21%</t>
+    <t>1,1%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,62%</t>
+    <t>0,65%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -437,55 +431,55 @@
     <t>29,25%</t>
   </si>
   <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
   </si>
   <si>
     <t>23,94%</t>
   </si>
   <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
   </si>
   <si>
     <t>26,34%</t>
   </si>
   <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
   </si>
   <si>
     <t>69,21%</t>
   </si>
   <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
   </si>
   <si>
     <t>74,59%</t>
   </si>
   <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
   </si>
   <si>
     <t>72,15%</t>
   </si>
   <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
   </si>
   <si>
     <t>1,54%</t>
@@ -494,115 +488,109 @@
     <t>0,52%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>2,43%</t>
+    <t>0,74%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,83%</t>
+    <t>0,71%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
   </si>
   <si>
     <t>19,09%</t>
   </si>
   <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
   </si>
   <si>
     <t>21,71%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
   </si>
   <si>
     <t>73,49%</t>
   </si>
   <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
   </si>
   <si>
     <t>78,74%</t>
   </si>
   <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
   </si>
   <si>
     <t>76,25%</t>
   </si>
   <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -611,7 +599,7 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,31%</t>
+    <t>0,33%</t>
   </si>
   <si>
     <t>0,05%</t>
@@ -1029,7 +1017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38635324-D911-4C35-80B3-E2F003955E18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6403AD62-92EA-41AC-BDC4-349DB17E1F79}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1670,10 +1658,10 @@
         <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>115</v>
@@ -1682,13 +1670,13 @@
         <v>91877</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>225</v>
@@ -1697,13 +1685,13 @@
         <v>215359</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,13 +1706,13 @@
         <v>357609</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" s="7">
         <v>567</v>
@@ -1733,13 +1721,13 @@
         <v>386872</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M15" s="7">
         <v>877</v>
@@ -1748,13 +1736,13 @@
         <v>744481</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1757,13 @@
         <v>5589</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -1784,13 +1772,13 @@
         <v>18553</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -1799,13 +1787,13 @@
         <v>24142</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,7 +1829,7 @@
         <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1856,7 +1844,7 @@
         <v>32</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,7 +1900,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1924,13 +1912,13 @@
         <v>60806</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>62</v>
@@ -1939,7 +1927,7 @@
         <v>53418</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>103</v>
@@ -2005,13 +1993,13 @@
         <v>566388</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,13 +2014,13 @@
         <v>3231</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -2041,13 +2029,13 @@
         <v>6525</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -2056,13 +2044,13 @@
         <v>9755</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,7 +2071,7 @@
         <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2092,13 +2080,13 @@
         <v>780</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2107,13 +2095,13 @@
         <v>780</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,7 +2157,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2181,13 +2169,13 @@
         <v>123987</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H24" s="7">
         <v>128</v>
@@ -2196,13 +2184,13 @@
         <v>122656</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M24" s="7">
         <v>237</v>
@@ -2211,13 +2199,13 @@
         <v>246642</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,13 +2220,13 @@
         <v>293318</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>527</v>
@@ -2247,13 +2235,13 @@
         <v>382219</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>839</v>
@@ -2262,13 +2250,13 @@
         <v>675537</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,13 +2271,13 @@
         <v>6517</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -2298,13 +2286,13 @@
         <v>6830</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -2313,13 +2301,13 @@
         <v>13346</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,13 +2337,13 @@
         <v>744</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -2364,13 +2352,13 @@
         <v>744</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2438,13 +2426,13 @@
         <v>373927</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H29" s="7">
         <v>377</v>
@@ -2453,13 +2441,13 @@
         <v>321529</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M29" s="7">
         <v>706</v>
@@ -2468,13 +2456,13 @@
         <v>695456</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,13 +2477,13 @@
         <v>1115935</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H30" s="7">
         <v>1952</v>
@@ -2504,13 +2492,13 @@
         <v>1326475</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M30" s="7">
         <v>3061</v>
@@ -2519,13 +2507,13 @@
         <v>2442410</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,13 +2528,13 @@
         <v>28668</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H31" s="7">
         <v>45</v>
@@ -2555,13 +2543,13 @@
         <v>35160</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M31" s="7">
         <v>67</v>
@@ -2570,13 +2558,13 @@
         <v>63828</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,7 +2585,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -2606,13 +2594,13 @@
         <v>1523</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -2621,13 +2609,13 @@
         <v>1523</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,7 +2671,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E788018-73D9-4A4F-B757-C95F2FA8B277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{596FC083-A31B-4BDB-A828-0363FBF122A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{33F95EA1-7D4E-4AB4-81C2-79A43B7C3B19}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5DA4A780-DBF0-4E8D-A73F-0ECF081F9192}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="169">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención médica en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
@@ -65,544 +65,481 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No lo ha necesitado</t>
   </si>
   <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
   </si>
   <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
   </si>
   <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
   </si>
   <si>
     <t>80,61%</t>
   </si>
   <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
   </si>
   <si>
     <t>0,13%</t>
   </si>
   <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1017,8 +954,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6403AD62-92EA-41AC-BDC4-349DB17E1F79}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D310D9A-C2F0-499B-B38C-6A25FEBF5A3B}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1135,10 +1072,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D4" s="7">
-        <v>15441</v>
+        <v>63652</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1150,10 +1087,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="I4" s="7">
-        <v>4231</v>
+        <v>47786</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1165,10 +1102,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="N4" s="7">
-        <v>19671</v>
+        <v>111438</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1186,10 +1123,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>43</v>
+        <v>225</v>
       </c>
       <c r="D5" s="7">
-        <v>37953</v>
+        <v>190048</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1201,10 +1138,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>83</v>
+        <v>440</v>
       </c>
       <c r="I5" s="7">
-        <v>44450</v>
+        <v>248352</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1216,10 +1153,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>126</v>
+        <v>665</v>
       </c>
       <c r="N5" s="7">
-        <v>82404</v>
+        <v>438400</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1237,10 +1174,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>12899</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1252,40 +1189,40 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>3149</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>16048</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1294,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1309,13 +1246,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1324,13 +1261,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1339,102 +1276,102 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>60</v>
+        <v>294</v>
       </c>
       <c r="D8" s="7">
-        <v>53394</v>
+        <v>266599</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
-        <v>91</v>
+        <v>516</v>
       </c>
       <c r="I8" s="7">
-        <v>48681</v>
+        <v>299287</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>151</v>
+        <v>810</v>
       </c>
       <c r="N8" s="7">
-        <v>102075</v>
+        <v>565886</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D9" s="7">
-        <v>50212</v>
+        <v>112527</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="I9" s="7">
-        <v>49347</v>
+        <v>80136</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="N9" s="7">
-        <v>99559</v>
+        <v>192663</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1443,49 +1380,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>182</v>
+        <v>310</v>
       </c>
       <c r="D10" s="7">
-        <v>154965</v>
+        <v>540638</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
-        <v>357</v>
+        <v>567</v>
       </c>
       <c r="I10" s="7">
-        <v>218637</v>
+        <v>350689</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
-        <v>539</v>
+        <v>877</v>
       </c>
       <c r="N10" s="7">
-        <v>373602</v>
+        <v>891327</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1494,55 +1431,55 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>13332</v>
+        <v>5224</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I11" s="7">
-        <v>3252</v>
+        <v>16530</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="N11" s="7">
-        <v>16584</v>
+        <v>21754</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1551,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1566,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1581,13 +1518,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,102 +1533,102 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>234</v>
+        <v>426</v>
       </c>
       <c r="D13" s="7">
-        <v>218509</v>
+        <v>658389</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>425</v>
+        <v>705</v>
       </c>
       <c r="I13" s="7">
-        <v>271237</v>
+        <v>447355</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
-        <v>659</v>
+        <v>1131</v>
       </c>
       <c r="N13" s="7">
-        <v>489746</v>
+        <v>1105744</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7">
-        <v>123482</v>
+        <v>60400</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="I14" s="7">
-        <v>91877</v>
+        <v>51135</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>225</v>
+        <v>111</v>
       </c>
       <c r="N14" s="7">
-        <v>215359</v>
+        <v>111535</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1700,49 +1637,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="D15" s="7">
-        <v>357609</v>
+        <v>267352</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H15" s="7">
-        <v>567</v>
+        <v>418</v>
       </c>
       <c r="I15" s="7">
-        <v>386872</v>
+        <v>271559</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="M15" s="7">
-        <v>877</v>
+        <v>680</v>
       </c>
       <c r="N15" s="7">
-        <v>744481</v>
+        <v>538910</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,55 +1688,55 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>5589</v>
+        <v>3086</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>18553</v>
+        <v>5983</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="N16" s="7">
-        <v>24142</v>
+        <v>9069</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1808,43 +1745,43 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,102 +1790,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>426</v>
+        <v>314</v>
       </c>
       <c r="D18" s="7">
-        <v>486680</v>
+        <v>330838</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H18" s="7">
-        <v>705</v>
+        <v>489</v>
       </c>
       <c r="I18" s="7">
-        <v>497302</v>
+        <v>329390</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
-        <v>1131</v>
+        <v>803</v>
       </c>
       <c r="N18" s="7">
-        <v>983982</v>
+        <v>660227</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="D19" s="7">
-        <v>60806</v>
+        <v>118566</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="H19" s="7">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="I19" s="7">
-        <v>53418</v>
+        <v>165066</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="M19" s="7">
-        <v>111</v>
+        <v>237</v>
       </c>
       <c r="N19" s="7">
-        <v>114224</v>
+        <v>283632</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,49 +1894,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="D20" s="7">
-        <v>272090</v>
+        <v>282854</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
-        <v>418</v>
+        <v>527</v>
       </c>
       <c r="I20" s="7">
-        <v>294297</v>
+        <v>346004</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M20" s="7">
-        <v>680</v>
+        <v>839</v>
       </c>
       <c r="N20" s="7">
-        <v>566388</v>
+        <v>628859</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,55 +1945,55 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>3231</v>
+        <v>6533</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="H21" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I21" s="7">
-        <v>6525</v>
+        <v>6184</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M21" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N21" s="7">
-        <v>9755</v>
+        <v>12718</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2065,43 +2002,43 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>780</v>
+        <v>687</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>780</v>
+        <v>687</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2110,102 +2047,102 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>314</v>
+        <v>426</v>
       </c>
       <c r="D23" s="7">
-        <v>336127</v>
+        <v>407953</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
-        <v>489</v>
+        <v>666</v>
       </c>
       <c r="I23" s="7">
-        <v>355020</v>
+        <v>517942</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M23" s="7">
-        <v>803</v>
+        <v>1092</v>
       </c>
       <c r="N23" s="7">
-        <v>691147</v>
+        <v>925895</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>109</v>
+        <v>329</v>
       </c>
       <c r="D24" s="7">
-        <v>123987</v>
+        <v>355145</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H24" s="7">
-        <v>128</v>
+        <v>377</v>
       </c>
       <c r="I24" s="7">
-        <v>122656</v>
+        <v>344124</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="M24" s="7">
-        <v>237</v>
+        <v>706</v>
       </c>
       <c r="N24" s="7">
-        <v>246642</v>
+        <v>699268</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,49 +2151,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>312</v>
+        <v>1109</v>
       </c>
       <c r="D25" s="7">
-        <v>293318</v>
+        <v>1280892</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="H25" s="7">
-        <v>527</v>
+        <v>1952</v>
       </c>
       <c r="I25" s="7">
-        <v>382219</v>
+        <v>1216604</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M25" s="7">
-        <v>839</v>
+        <v>3061</v>
       </c>
       <c r="N25" s="7">
-        <v>675537</v>
+        <v>2497496</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,55 +2202,55 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D26" s="7">
-        <v>6517</v>
+        <v>27741</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="H26" s="7">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="I26" s="7">
-        <v>6830</v>
+        <v>31847</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="M26" s="7">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="N26" s="7">
-        <v>13346</v>
+        <v>59588</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -2322,43 +2259,43 @@
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="H27" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" s="7">
-        <v>744</v>
+        <v>1400</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="M27" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N27" s="7">
-        <v>744</v>
+        <v>1400</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,319 +2304,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>426</v>
+        <v>1460</v>
       </c>
       <c r="D28" s="7">
-        <v>423821</v>
+        <v>1663778</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H28" s="7">
-        <v>666</v>
+        <v>2376</v>
       </c>
       <c r="I28" s="7">
-        <v>512448</v>
+        <v>1593974</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M28" s="7">
-        <v>1092</v>
+        <v>3836</v>
       </c>
       <c r="N28" s="7">
-        <v>936269</v>
+        <v>3257752</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>329</v>
-      </c>
-      <c r="D29" s="7">
-        <v>373927</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H29" s="7">
-        <v>377</v>
-      </c>
-      <c r="I29" s="7">
-        <v>321529</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M29" s="7">
-        <v>706</v>
-      </c>
-      <c r="N29" s="7">
-        <v>695456</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>1109</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1115935</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="A29" t="s">
         <v>168</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H30" s="7">
-        <v>1952</v>
-      </c>
-      <c r="I30" s="7">
-        <v>1326475</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="M30" s="7">
-        <v>3061</v>
-      </c>
-      <c r="N30" s="7">
-        <v>2442410</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>22</v>
-      </c>
-      <c r="D31" s="7">
-        <v>28668</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H31" s="7">
-        <v>45</v>
-      </c>
-      <c r="I31" s="7">
-        <v>35160</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M31" s="7">
-        <v>67</v>
-      </c>
-      <c r="N31" s="7">
-        <v>63828</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H32" s="7">
-        <v>2</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1523</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="M32" s="7">
-        <v>2</v>
-      </c>
-      <c r="N32" s="7">
-        <v>1523</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1460</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1518531</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="7">
-        <v>2376</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1684687</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M33" s="7">
-        <v>3836</v>
-      </c>
-      <c r="N33" s="7">
-        <v>3203218</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>189</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
